--- a/outputs/maxaro.xlsx
+++ b/outputs/maxaro.xlsx
@@ -493,18 +493,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SW161911</t>
+          <t>SW108325</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VSA61</t>
+          <t>M45-0600-43080</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Half Vrijstaand Bad Marano 170x80cm Acryl Glans Wit</t>
+          <t>Ronde badkamerspiegel met LED Verlichting 60cm</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -515,39 +515,39 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>baden</t>
+          <t>badkamerspiegels</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>half-vrijstaande-baden</t>
+          <t>badkamerspiegels-met-verlichting</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1045</v>
+        <v>219</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/half-vrijstaande-baden/half-vrijstaand-bad-marano-170x80cm-acryl-glans-wit-6682/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-60cm-6553/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SW161922</t>
+          <t>SW161911</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M45-1000-43080</t>
+          <t>VSA61</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ronde badkamerspiegel met LED Verlichting 100cm</t>
+          <t>Half Vrijstaand Bad Marano 170x80cm Acryl Glans Wit</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -558,21 +558,21 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>badkamerspiegels</t>
+          <t>baden</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>badkamerspiegels-met-verlichting</t>
+          <t>half-vrijstaande-baden</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>329</v>
+        <v>1045</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-100cm-6555/</t>
+          <t>https://www.maxaro.nl/baden/half-vrijstaande-baden/half-vrijstaand-bad-marano-170x80cm-acryl-glans-wit-6682/</t>
         </is>
       </c>
     </row>
@@ -622,18 +622,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SW238204</t>
+          <t>SW1009</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IPA12305M</t>
+          <t>GW-09013</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 120cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
+          <t>Douchewand Inloopdouche 90cm Veiligheidsglas 6 mm Chroom</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -653,30 +653,30 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>425</v>
+        <v>150</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11190/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-90cm-veiligheidsglas-6-mm-chroom-81034/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SW225871</t>
+          <t>SW161922</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VSA72</t>
+          <t>M45-1000-43080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Halfvrijstaand Bad Velino 180x80cm Acryl Glans Wit</t>
+          <t>Ronde badkamerspiegel met LED Verlichting 100cm</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -687,39 +687,39 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>baden</t>
+          <t>badkamerspiegels</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>half-vrijstaande-baden</t>
+          <t>badkamerspiegels-met-verlichting</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1045</v>
+        <v>329</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/half-vrijstaande-baden/halfvrijstaand-bad-velino-180x80cm-acryl-glans-wit-81175/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-100cm-6555/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SW108325</t>
+          <t>SW161775</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M45-0600-43080</t>
+          <t>DSC-0404-00000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ronde badkamerspiegel met LED Verlichting 60cm</t>
+          <t>Regendoucheset Easy Chrome, Thermostaatkraan, 22cm Hoofddouche, Chroom</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -730,39 +730,39 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>badkamerspiegels</t>
+          <t>kranen</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>badkamerspiegels-met-verlichting</t>
+          <t>regendouches</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-60cm-6553/</t>
+          <t>https://www.maxaro.nl/kranen/regendouches/regendoucheset-easy-chrome-thermostaatkraan-22cm-hoofddouche-chroom-82903/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SW161775</t>
+          <t>SW208804</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DSC-0404-00000</t>
+          <t>GW-12013</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Regendoucheset Easy Chrome, Thermostaatkraan, 22cm Hoofddouche, Chroom</t>
+          <t>Douchewand Inloopdouche 120cm Veiligheidsglas 6 mm Chroom</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -773,21 +773,21 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>kranen</t>
+          <t>douches</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>regendouches</t>
+          <t>inloopdouches</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/kranen/regendouches/regendoucheset-easy-chrome-thermostaatkraan-22cm-hoofddouche-chroom-82903/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-6-mm-chroom-82443/</t>
         </is>
       </c>
     </row>
@@ -837,18 +837,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SW1008</t>
+          <t>SW225871</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GW-10013</t>
+          <t>VSA72</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 100cm Veiligheidsglas 6 mm Chroom</t>
+          <t>Halfvrijstaand Bad Velino 180x80cm Acryl Glans Wit</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -859,39 +859,39 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>douches</t>
+          <t>baden</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>inloopdouches</t>
+          <t>half-vrijstaande-baden</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>160</v>
+        <v>1045</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-veiligheidsglas-6-mm-chroom-81035/</t>
+          <t>https://www.maxaro.nl/baden/half-vrijstaande-baden/halfvrijstaand-bad-velino-180x80cm-acryl-glans-wit-81175/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SW1009</t>
+          <t>SW238214</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GW-09013</t>
+          <t>M10-1200-40500</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 90cm Veiligheidsglas 6 mm Chroom</t>
+          <t>Badkamerspiegel met LED Verlichting Lumo 120x60cm</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -902,39 +902,39 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>douches</t>
+          <t>badkamerspiegels</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>inloopdouches</t>
+          <t>badkamerspiegels-met-verlichting</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-90cm-veiligheidsglas-6-mm-chroom-81034/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-led-verlichting-lumo-120x60cm-6504/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SW157891</t>
+          <t>SW238204</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>XZ03-1880G</t>
+          <t>IPA12305M</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ligbad Capri 180x80cm Acryl Glans Wit</t>
+          <t>Douchewand Inloopdouche 120cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -945,39 +945,39 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>baden</t>
+          <t>douches</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ligbaden</t>
+          <t>inloopdouches</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>229</v>
+        <v>425</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-capri-180x80cm-acryl-glans-wit-6661/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11190/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SW238214</t>
+          <t>SW157891</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>M10-1200-40500</t>
+          <t>XZ03-1880G</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Badkamerspiegel met LED Verlichting Lumo 120x60cm</t>
+          <t>Ligbad Capri 180x80cm Acryl Glans Wit</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -988,39 +988,39 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>badkamerspiegels</t>
+          <t>baden</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>badkamerspiegels-met-verlichting</t>
+          <t>ligbaden</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-led-verlichting-lumo-120x60cm-6504/</t>
+          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-capri-180x80cm-acryl-glans-wit-6661/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SW208804</t>
+          <t>SW1008</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GW-12013</t>
+          <t>GW-10013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 120cm Veiligheidsglas 6 mm Chroom</t>
+          <t>Douchewand Inloopdouche 100cm Veiligheidsglas 6 mm Chroom</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1040,12 +1040,12 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-6-mm-chroom-82443/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-veiligheidsglas-6-mm-chroom-81035/</t>
         </is>
       </c>
     </row>
@@ -1095,18 +1095,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sw6328</t>
+          <t>SW1125</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IPA10305M</t>
+          <t>IPA09305M</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 100cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
+          <t>Douchewand Inloopdouche 90cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1126,30 +1126,30 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11157/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-90cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11123/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SW23914</t>
+          <t>SW108326</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S0820-1000C</t>
+          <t>XZ02-1775G</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Douchewand met Schuifdeur Ruby Allure 100cm Chroom</t>
+          <t>Ligbad Piana 170x75cm Acryl Glans Wit</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1160,39 +1160,39 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>douches</t>
+          <t>baden</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>douchedeuren</t>
+          <t>ligbaden</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-100cm-chroom-12608/</t>
+          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-piana-170x75cm-acryl-glans-wit-6656/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SW238202</t>
+          <t>sw6328</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S0820-1100C</t>
+          <t>IPA10305M</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Douchewand met Schuifdeur Ruby Allure 110cm Chroom</t>
+          <t>Douchewand Inloopdouche 100cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1208,34 +1208,34 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>douchedeuren</t>
+          <t>inloopdouches</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-110cm-chroom-12610/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11157/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SW108326</t>
+          <t>SW238202</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>XZ02-1775G</t>
+          <t>S0820-1100C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ligbad Piana 170x75cm Acryl Glans Wit</t>
+          <t>Douchewand met Schuifdeur Ruby Allure 110cm Chroom</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1246,39 +1246,39 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>baden</t>
+          <t>douches</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ligbaden</t>
+          <t>douchedeuren</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-piana-170x75cm-acryl-glans-wit-6656/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-110cm-chroom-12610/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SW1125</t>
+          <t>SW23914</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IPA09305M</t>
+          <t>S0820-1000C</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 90cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
+          <t>Douchewand met Schuifdeur Ruby Allure 100cm Chroom</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1294,34 +1294,34 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>inloopdouches</t>
+          <t>douchedeuren</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>395</v>
+        <v>300</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-90cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11123/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-100cm-chroom-12608/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SW238201</t>
+          <t>SW238224</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DBSS0909</t>
+          <t>M31-1200-45505</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Douchebak 90x90cm Vierkant SMC Hoogglans Wit</t>
+          <t>Badkamerspiegel met Verlichting 120x60cm</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1332,39 +1332,39 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>douches</t>
+          <t>badkamerspiegels</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>douchebakken</t>
+          <t>badkamerspiegels-met-verlichting</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vierkant-smc-hoogglans-wit-13105/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-120x60cm-6524/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SW238224</t>
+          <t>SW238201</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>M31-1200-45505</t>
+          <t>DBSS0909</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Badkamerspiegel met Verlichting 120x60cm</t>
+          <t>Douchebak 90x90cm Vierkant SMC Hoogglans Wit</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1375,39 +1375,39 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>badkamerspiegels</t>
+          <t>douches</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>badkamerspiegels-met-verlichting</t>
+          <t>douchebakken</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-120x60cm-6524/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vierkant-smc-hoogglans-wit-13105/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SW358008</t>
+          <t>SW238222</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>200-1202MB</t>
+          <t>EC-0909013</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>WC Borstel Radius Black, Hangend, Zwart</t>
+          <t>Douchecabine Zircon Essence Helder 90x90cm Vierkant met Draaideur</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1418,39 +1418,39 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>badkameraccessoires</t>
+          <t>douches</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>wc-borstels</t>
+          <t>douchecabines</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>47.95</v>
+        <v>319</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkameraccessoires/wc-borstels/wc-borstel-radius-black-hangend-zwart-13223/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-zircon-essence-helder-90x90cm-vierkant-met-draaideur-80992/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SW2328</t>
+          <t>SW358008</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>IPA12300M</t>
+          <t>200-1202MB</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 120cm Veiligheidsglas 8mm Mat Zwart</t>
+          <t>WC Borstel Radius Black, Hangend, Zwart</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1461,39 +1461,39 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>douches</t>
+          <t>badkameraccessoires</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>inloopdouches</t>
+          <t>wc-borstels</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>340</v>
+        <v>47.95</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-8mm-mat-zwart-11185/</t>
+          <t>https://www.maxaro.nl/badkameraccessoires/wc-borstels/wc-borstel-radius-black-hangend-zwart-13223/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SW238222</t>
+          <t>SW238231</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EC-0909013</t>
+          <t>GW-08013</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Douchecabine Zircon Essence Helder 90x90cm Vierkant met Draaideur</t>
+          <t>Douchewand Inloopdouche 80cm Veiligheidsglas 6 mm Chroom</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1509,34 +1509,34 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>douchecabines</t>
+          <t>inloopdouches</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>319</v>
+        <v>140</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-zircon-essence-helder-90x90cm-vierkant-met-draaideur-80992/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-veiligheidsglas-6-mm-chroom-81033/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SW238231</t>
+          <t>SW238205</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GW-08013</t>
+          <t>150-1103MB</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 80cm Veiligheidsglas 6 mm Chroom</t>
+          <t>Toiletrolhouder Radius Black, Zwart</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1547,39 +1547,39 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>douches</t>
+          <t>badkameraccessoires</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>inloopdouches</t>
+          <t>toiletrolhouders</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>140</v>
+        <v>27.95</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-veiligheidsglas-6-mm-chroom-81033/</t>
+          <t>https://www.maxaro.nl/badkameraccessoires/toiletrolhouders/toiletrolhouder-radius-black-zwart-13244/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SW238205</t>
+          <t>SW209323</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>150-1103MB</t>
+          <t>S0411-0900N</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Toiletrolhouder Radius Black, Zwart</t>
+          <t>Douchedeur Zircon Comfort 90cm</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1590,39 +1590,39 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>badkameraccessoires</t>
+          <t>douches</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>toiletrolhouders</t>
+          <t>douchedeuren</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>27.95</v>
+        <v>285</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkameraccessoires/toiletrolhouders/toiletrolhouder-radius-black-zwart-13244/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-zircon-comfort-90cm-12575/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SW209331</t>
+          <t>SW2328</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IPA14305M</t>
+          <t>IPA12300M</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 140cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
+          <t>Douchewand Inloopdouche 120cm Veiligheidsglas 8mm Mat Zwart</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1642,30 +1642,30 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11219/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-8mm-mat-zwart-11185/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SW209323</t>
+          <t>SW209331</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S0411-0900N</t>
+          <t>IPA14305M</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Douchedeur Zircon Comfort 90cm</t>
+          <t>Douchewand Inloopdouche 140cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1681,34 +1681,34 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>douchedeuren</t>
+          <t>inloopdouches</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-zircon-comfort-90cm-12575/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11219/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SW238220</t>
+          <t>SW208812</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>M32-1200-45505</t>
+          <t>M31-0800-45505</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Badkamerspiegel met Verlichting Meso 120x60cm</t>
+          <t>Badkamerspiegel met Verlichting 80x60cm</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1728,30 +1728,30 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-meso-120x60cm-6534/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-80x60cm-6517/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SW208812</t>
+          <t>SW238221</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>M31-0800-45505</t>
+          <t>L2805-0909C</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Badkamerspiegel met Verlichting 80x60cm</t>
+          <t>Douchecabine Ruby Essence Helder 90x90cm Vierkant met Schuifdeuren</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1762,21 +1762,21 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>badkamerspiegels</t>
+          <t>douches</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>badkamerspiegels-met-verlichting</t>
+          <t>douchecabines</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-80x60cm-6517/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-essence-helder-90x90cm-vierkant-met-schuifdeuren-12273/</t>
         </is>
       </c>
     </row>
@@ -1826,18 +1826,18 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SW1211</t>
+          <t>SW238220</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IPA08305M</t>
+          <t>M32-1200-45505</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 80cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
+          <t>Badkamerspiegel met Verlichting Meso 120x60cm</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1848,39 +1848,39 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>douches</t>
+          <t>badkamerspiegels</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>inloopdouches</t>
+          <t>badkamerspiegels-met-verlichting</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>375</v>
+        <v>209</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11097/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-meso-120x60cm-6534/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SW238221</t>
+          <t>SW1211</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>L2805-0909C</t>
+          <t>IPA08305M</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Douchecabine Ruby Essence Helder 90x90cm Vierkant met Schuifdeuren</t>
+          <t>Douchewand Inloopdouche 80cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1896,34 +1896,34 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>douchecabines</t>
+          <t>inloopdouches</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>199</v>
+        <v>375</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-essence-helder-90x90cm-vierkant-met-schuifdeuren-12273/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11097/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SW238200</t>
+          <t>SW20529</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R2805-0909C</t>
+          <t>109105Z</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Douchecabine Ruby Essence 90x90cm Kwartrond met Schuifdeuren</t>
+          <t>Douchewisser, Hangend, Glasbevestiging, Zwart</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1934,39 +1934,39 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>douches</t>
+          <t>badkameraccessoires</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>douchecabines</t>
+          <t>douchewissers</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>199</v>
+        <v>29.95</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-essence-90x90cm-kwartrond-met-schuifdeuren-12389/</t>
+          <t>https://www.maxaro.nl/badkameraccessoires/douchewissers/douchewisser-hangend-glasbevestiging-zwart-13320/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SW237319</t>
+          <t>SW238200</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S2805-1200C</t>
+          <t>R2805-0909C</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Douchewand met Schuifdeur Ruby Essence 120cm Chroom</t>
+          <t>Douchecabine Ruby Essence 90x90cm Kwartrond met Schuifdeuren</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1982,34 +1982,34 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>douchedeuren</t>
+          <t>douchecabines</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-essence-120cm-chroom-12636/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-essence-90x90cm-kwartrond-met-schuifdeuren-12389/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SW238229</t>
+          <t>SW238213</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>XZ03-1775G</t>
+          <t>GW-07013</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ligbad Capri 170x75cm Acryl Glans Wit</t>
+          <t>Douchewand Inloopdouche 70cm Veiligheidsglas 6 mm Chroom</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2020,39 +2020,39 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>baden</t>
+          <t>douches</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ligbaden</t>
+          <t>inloopdouches</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-capri-170x75cm-acryl-glans-wit-6655/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-70cm-veiligheidsglas-6-mm-chroom-81032/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SW1208</t>
+          <t>SW237319</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>L0820-0909C</t>
+          <t>S2805-1200C</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Douchecabine Ruby Allure Helder 90x90cm Vierkant met Schuifdeuren</t>
+          <t>Douchewand met Schuifdeur Ruby Essence 120cm Chroom</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2068,34 +2068,34 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>douchecabines</t>
+          <t>douchedeuren</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-allure-helder-90x90cm-vierkant-met-schuifdeuren-12206/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-essence-120cm-chroom-12636/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SW377841</t>
+          <t>SW238229</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>IPA12305M</t>
+          <t>XZ03-1775G</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 120cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
+          <t>Ligbad Capri 170x75cm Acryl Glans Wit</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2106,39 +2106,39 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>douches</t>
+          <t>baden</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>inloopdouches</t>
+          <t>ligbaden</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>425</v>
+        <v>219</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11190/</t>
+          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-capri-170x75cm-acryl-glans-wit-6655/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SW20529</t>
+          <t>SW1208</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>109105Z</t>
+          <t>L0820-0909C</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Douchewisser, Hangend, Glasbevestiging, Zwart</t>
+          <t>Douchecabine Ruby Allure Helder 90x90cm Vierkant met Schuifdeuren</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2149,21 +2149,21 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>badkameraccessoires</t>
+          <t>douches</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>douchewissers</t>
+          <t>douchecabines</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>29.95</v>
+        <v>309</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkameraccessoires/douchewissers/douchewisser-hangend-glasbevestiging-zwart-13320/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-allure-helder-90x90cm-vierkant-met-schuifdeuren-12206/</t>
         </is>
       </c>
     </row>
@@ -2213,18 +2213,18 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SW238213</t>
+          <t>SW377841</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GW-07013</t>
+          <t>IPA12305M</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 70cm Veiligheidsglas 6 mm Chroom</t>
+          <t>Douchewand Inloopdouche 120cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2244,12 +2244,12 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>130</v>
+        <v>425</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-70cm-veiligheidsglas-6-mm-chroom-81032/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11190/</t>
         </is>
       </c>
     </row>
@@ -2299,18 +2299,18 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SW208805</t>
+          <t>SW208803</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>M31-0600-65505</t>
+          <t>S0820-1300C</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Badkamerspiegel met Verlichting 60x80cm</t>
+          <t>Douchewand met Schuifdeur Ruby Allure 130cm Chroom</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2321,39 +2321,39 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>badkamerspiegels</t>
+          <t>douches</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>badkamerspiegels-met-verlichting</t>
+          <t>douchedeuren</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-60x80cm-6516/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-130cm-chroom-12614/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SW208803</t>
+          <t>SW238198</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S0820-1300C</t>
+          <t>S0310-0970N</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Douchewand met Schuifdeur Ruby Allure 130cm Chroom</t>
+          <t>Douchedeur 90cm Draaideur Zircon Comfort</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2373,30 +2373,30 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-130cm-chroom-12614/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-90cm-draaideur-zircon-comfort-12421/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SW238227</t>
+          <t>SW208805</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>IPA14300C</t>
+          <t>M31-0600-65505</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 140cm Veiligheidsglas 8mm Chroom</t>
+          <t>Badkamerspiegel met Verlichting 60x80cm</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2407,39 +2407,39 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>douches</t>
+          <t>badkamerspiegels</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>inloopdouches</t>
+          <t>badkamerspiegels-met-verlichting</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-veiligheidsglas-8mm-chroom-11210/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-60x80cm-6516/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SW238196</t>
+          <t>SW238227</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>IPA12306C</t>
+          <t>IPA14300C</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 120cm Matte Strepen Veiligheidsglas 8mm Chroom</t>
+          <t>Douchewand Inloopdouche 140cm Veiligheidsglas 8mm Chroom</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2459,30 +2459,30 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-matte-strepen-veiligheidsglas-8mm-chroom-11191/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-veiligheidsglas-8mm-chroom-11210/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SW238198</t>
+          <t>SW238195</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S0310-0970N</t>
+          <t>GW-05013</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Douchedeur 90cm Draaideur Zircon Comfort</t>
+          <t>Douchewand Inloopdouche 50cm Veiligheidsglas 6 mm Chroom</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>douchedeuren</t>
+          <t>inloopdouches</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-90cm-draaideur-zircon-comfort-12421/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-50cm-veiligheidsglas-6-mm-chroom-81030/</t>
         </is>
       </c>
     </row>
@@ -2557,18 +2557,18 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SW377810</t>
+          <t>SW238196</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S0411-1000N</t>
+          <t>IPA12306C</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Douchedeur Zircon Comfort 100cm</t>
+          <t>Douchewand Inloopdouche 120cm Matte Strepen Veiligheidsglas 8mm Chroom</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2584,16 +2584,16 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>douchedeuren</t>
+          <t>inloopdouches</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-zircon-comfort-100cm-12576/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-matte-strepen-veiligheidsglas-8mm-chroom-11191/</t>
         </is>
       </c>
     </row>
@@ -2643,18 +2643,18 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SW238195</t>
+          <t>SW208801</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GW-05013</t>
+          <t>DBAS0808G</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 50cm Veiligheidsglas 6 mm Chroom</t>
+          <t>Douchebak 80x80cm Vierkant Acryl Hoogglans Wit</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2670,34 +2670,34 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>inloopdouches</t>
+          <t>douchebakken</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-50cm-veiligheidsglas-6-mm-chroom-81030/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-vierkant-acryl-hoogglans-wit-13078/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SW23918</t>
+          <t>SW23913</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IQA12300C</t>
+          <t>IPA14305M</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche Quartz 120cm Veiligheidsglas 8mm Chroom</t>
+          <t>Douchewand Inloopdouche 140cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2717,30 +2717,30 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>320</v>
+        <v>445</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-quartz-120cm-veiligheidsglas-8mm-chroom-12007/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11219/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SW23913</t>
+          <t>SW23918</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>IPA14305M</t>
+          <t>IQA12300C</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 140cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
+          <t>Douchewand Inloopdouche Quartz 120cm Veiligheidsglas 8mm Chroom</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2760,12 +2760,12 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>445</v>
+        <v>320</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11219/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-quartz-120cm-veiligheidsglas-8mm-chroom-12007/</t>
         </is>
       </c>
     </row>
@@ -2858,18 +2858,18 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SW88209</t>
+          <t>SW377810</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>IPA10306C</t>
+          <t>S0411-1000N</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 100cm Matte Strepen Veiligheidsglas 8mm Chroom</t>
+          <t>Douchedeur Zircon Comfort 100cm</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2885,34 +2885,34 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>inloopdouches</t>
+          <t>douchedeuren</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-matte-strepen-veiligheidsglas-8mm-chroom-11158/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-zircon-comfort-100cm-12576/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SW208801</t>
+          <t>SW208813</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DBAS0808G</t>
+          <t>GW-04013</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Douchebak 80x80cm Vierkant Acryl Hoogglans Wit</t>
+          <t>Douchewand Inloopdouche 40cm Veiligheidsglas 6 mm Chroom</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2928,34 +2928,34 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>douchebakken</t>
+          <t>inloopdouches</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-vierkant-acryl-hoogglans-wit-13078/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-40cm-veiligheidsglas-6-mm-chroom-81029/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SW208813</t>
+          <t>SW238217</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GW-04013</t>
+          <t>M32-0600-55505</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 40cm Veiligheidsglas 6 mm Chroom</t>
+          <t>Badkamerspiegel met Verlichting 60x70cm</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2966,39 +2966,39 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>douches</t>
+          <t>badkamerspiegels</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>inloopdouches</t>
+          <t>badkamerspiegels-met-verlichting</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-40cm-veiligheidsglas-6-mm-chroom-81029/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-60x70cm-6528/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SW238217</t>
+          <t>SW238216</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M32-0600-55505</t>
+          <t>DBAR1009G</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Badkamerspiegel met Verlichting 60x70cm</t>
+          <t>Douchebak 100x90cm Rechthoek Acryl Hoogglans Wit</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3009,39 +3009,39 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>badkamerspiegels</t>
+          <t>douches</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>badkamerspiegels-met-verlichting</t>
+          <t>douchebakken</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-60x70cm-6528/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x90cm-rechthoek-acryl-hoogglans-wit-13053/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SW238216</t>
+          <t>SW208806</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DBAR1009G</t>
+          <t>IPA14300M</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Douchebak 100x90cm Rechthoek Acryl Hoogglans Wit</t>
+          <t>Douchewand Inloopdouche 140cm Veiligheidsglas 8mm Mat Zwart</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3057,34 +3057,34 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>douchebakken</t>
+          <t>inloopdouches</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>145</v>
+        <v>370</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x90cm-rechthoek-acryl-hoogglans-wit-13053/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-veiligheidsglas-8mm-mat-zwart-11211/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SW208806</t>
+          <t>SW238199</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>IPA14300M</t>
+          <t>DBSS1010</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Douchewand Inloopdouche 140cm Veiligheidsglas 8mm Mat Zwart</t>
+          <t>Douchebak 100x100cm Vierkant SMC Hoogglans Wit</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3100,34 +3100,34 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>inloopdouches</t>
+          <t>douchebakken</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>370</v>
+        <v>159</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-veiligheidsglas-8mm-mat-zwart-11211/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vierkant-smc-hoogglans-wit-13106/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SW238194</t>
+          <t>SW209329</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DBAS0808G</t>
+          <t>EC-0808011</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Douchebak 80x80cm Vierkant Acryl Hoogglans Wit</t>
+          <t>Douchecabine Zircon Essence Helder 80x80cm Vierkant met Draaideur</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3143,34 +3143,34 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>douchebakken</t>
+          <t>douchecabines</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-vierkant-acryl-hoogglans-wit-13078/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-zircon-essence-helder-80x80cm-vierkant-met-draaideur-10935/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SW208800</t>
+          <t>SW88209</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DBAP1010G</t>
+          <t>IPA10306C</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Douchebak 100x100cm Vijfhoek Acryl Hoogglans Wit</t>
+          <t>Douchewand Inloopdouche 100cm Matte Strepen Veiligheidsglas 8mm Chroom</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3186,34 +3186,34 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>douchebakken</t>
+          <t>inloopdouches</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>145</v>
+        <v>340</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vijfhoek-acryl-hoogglans-wit-13048/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-matte-strepen-veiligheidsglas-8mm-chroom-11158/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SW238199</t>
+          <t>SW238194</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DBSS1010</t>
+          <t>DBAS0808G</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Douchebak 100x100cm Vierkant SMC Hoogglans Wit</t>
+          <t>Douchebak 80x80cm Vierkant Acryl Hoogglans Wit</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3233,30 +3233,30 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vierkant-smc-hoogglans-wit-13106/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-vierkant-acryl-hoogglans-wit-13078/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SW209329</t>
+          <t>SW2104</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EC-0808011</t>
+          <t>DBAS0909G</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Douchecabine Zircon Essence Helder 80x80cm Vierkant met Draaideur</t>
+          <t>Douchebak 90x90cm Vierkant Acryl Hoogglans Wit</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3272,34 +3272,34 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>douchecabines</t>
+          <t>douchebakken</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-zircon-essence-helder-80x80cm-vierkant-met-draaideur-10935/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vierkant-acryl-hoogglans-wit-13079/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SW2104</t>
+          <t>SW208800</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DBAS0909G</t>
+          <t>DBAP1010G</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Douchebak 90x90cm Vierkant Acryl Hoogglans Wit</t>
+          <t>Douchebak 100x100cm Vijfhoek Acryl Hoogglans Wit</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3319,12 +3319,12 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vierkant-acryl-hoogglans-wit-13079/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vijfhoek-acryl-hoogglans-wit-13048/</t>
         </is>
       </c>
     </row>
@@ -3374,18 +3374,18 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SW2108</t>
+          <t>SW238215</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DBSQ0808</t>
+          <t>DBAP0909G</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Douchebak 80x80cm Kwartrond SMC Hoogglans Wit</t>
+          <t>Douchebak 90x90cm Vijfhoek Acryl Hoogglans Wit</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3405,30 +3405,30 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-kwartrond-smc-hoogglans-wit-13090/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vijfhoek-acryl-hoogglans-wit-13047/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SW238215</t>
+          <t>SW2108</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DBAP0909G</t>
+          <t>DBSQ0808</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Douchebak 90x90cm Vijfhoek Acryl Hoogglans Wit</t>
+          <t>Douchebak 80x80cm Kwartrond SMC Hoogglans Wit</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3448,30 +3448,30 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vijfhoek-acryl-hoogglans-wit-13047/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-kwartrond-smc-hoogglans-wit-13090/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SW238230</t>
+          <t>SW23916</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DBAQ0909G</t>
+          <t>DBAS1010G</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Douchebak 90x90cm Kwartrond Acryl Hoogglans Wit</t>
+          <t>Douchebak 100x100cm Vierkant Acryl Hoogglans Wit</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3491,30 +3491,30 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-kwartrond-acryl-hoogglans-wit-13050/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vierkant-acryl-hoogglans-wit-13081/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SW23916</t>
+          <t>SW238230</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DBAS1010G</t>
+          <t>DBAQ0909G</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Douchebak 100x100cm Vierkant Acryl Hoogglans Wit</t>
+          <t>Douchebak 90x90cm Kwartrond Acryl Hoogglans Wit</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3534,30 +3534,30 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vierkant-acryl-hoogglans-wit-13081/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-kwartrond-acryl-hoogglans-wit-13050/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SW20840</t>
+          <t>SW377833</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DBAQ0808G</t>
+          <t>DBAQ1010G</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Douchebak 80x80cm Kwartrond Acryl Hoogglans Wit</t>
+          <t>Douchebak 100x100cm Kwartrond Acryl Hoogglans Wit</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3577,30 +3577,30 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-kwartrond-acryl-hoogglans-wit-13049/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-kwartrond-acryl-hoogglans-wit-13051/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SW377833</t>
+          <t>SW20840</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DBAQ1010G</t>
+          <t>DBAQ0808G</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Douchebak 100x100cm Kwartrond Acryl Hoogglans Wit</t>
+          <t>Douchebak 80x80cm Kwartrond Acryl Hoogglans Wit</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3620,30 +3620,30 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-kwartrond-acryl-hoogglans-wit-13051/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-kwartrond-acryl-hoogglans-wit-13049/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SW377837</t>
+          <t>SW213536</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>M120-0041N</t>
+          <t>VSB11-MN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Waskom Mintra Solid Surface Mat Wit 55x32,5cm Ovaal</t>
+          <t>Vrijstaand Bad Solid Surface Tesino 180x85cm Mat Wit</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3654,39 +3654,39 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>wastafels</t>
+          <t>baden</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>waskommen</t>
+          <t>vrijstaande-baden</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>229</v>
+        <v>1995</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/wastafels/waskommen/waskom-mintra-solid-surface-mat-wit-55x325cm-ovaal-7206/</t>
+          <t>https://www.maxaro.nl/baden/vrijstaande-baden/vrijstaand-bad-solid-surface-tesino-180x85cm-mat-wit-6714/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SW213536</t>
+          <t>SW377837</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>VSB11-MN</t>
+          <t>M120-0041N</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Vrijstaand Bad Solid Surface Tesino 180x85cm Mat Wit</t>
+          <t>Waskom Mintra Solid Surface Mat Wit 55x32,5cm Ovaal</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3697,21 +3697,21 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>baden</t>
+          <t>wastafels</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>vrijstaande-baden</t>
+          <t>waskommen</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1995</v>
+        <v>229</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/vrijstaande-baden/vrijstaand-bad-solid-surface-tesino-180x85cm-mat-wit-6714/</t>
+          <t>https://www.maxaro.nl/wastafels/waskommen/waskom-mintra-solid-surface-mat-wit-55x325cm-ovaal-7206/</t>
         </is>
       </c>
     </row>

--- a/outputs/maxaro.xlsx
+++ b/outputs/maxaro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.sieraad\Documents\Projects\scraping-concurrenten\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32874248-ABE8-4BEA-8873-930852237750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D464CAF-3188-4C30-97D5-6AC9171342BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week_35" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -113,9 +113,6 @@
     <t>GW-09013</t>
   </si>
   <si>
-    <t>Douchewand Inloopdouche 90cm Veiligheidsglas 6 mm Chroom</t>
-  </si>
-  <si>
     <t>douches</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>GW-12013</t>
   </si>
   <si>
-    <t>Douchewand Inloopdouche 120cm Veiligheidsglas 6 mm Chroom</t>
-  </si>
-  <si>
     <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-6-mm-chroom-82443/</t>
   </si>
   <si>
@@ -236,9 +230,6 @@
     <t>GW-10013</t>
   </si>
   <si>
-    <t>Douchewand Inloopdouche 100cm Veiligheidsglas 6 mm Chroom</t>
-  </si>
-  <si>
     <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-veiligheidsglas-6-mm-chroom-81035/</t>
   </si>
   <si>
@@ -260,9 +251,6 @@
     <t>IPA09305M</t>
   </si>
   <si>
-    <t>Douchewand Inloopdouche 90cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
-  </si>
-  <si>
     <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-90cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11123/</t>
   </si>
   <si>
@@ -284,9 +272,6 @@
     <t>IPA10305M</t>
   </si>
   <si>
-    <t>Douchewand Inloopdouche 100cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
-  </si>
-  <si>
     <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11157/</t>
   </si>
   <si>
@@ -383,9 +368,6 @@
     <t>GW-08013</t>
   </si>
   <si>
-    <t>Douchewand Inloopdouche 80cm Veiligheidsglas 6 mm Chroom</t>
-  </si>
-  <si>
     <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-veiligheidsglas-6-mm-chroom-81033/</t>
   </si>
   <si>
@@ -533,9 +515,6 @@
     <t>GW-07013</t>
   </si>
   <si>
-    <t>Douchewand Inloopdouche 70cm Veiligheidsglas 6 mm Chroom</t>
-  </si>
-  <si>
     <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-70cm-veiligheidsglas-6-mm-chroom-81032/</t>
   </si>
   <si>
@@ -647,9 +626,6 @@
     <t>GW-05013</t>
   </si>
   <si>
-    <t>Douchewand Inloopdouche 50cm Veiligheidsglas 6 mm Chroom</t>
-  </si>
-  <si>
     <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-50cm-veiligheidsglas-6-mm-chroom-81030/</t>
   </si>
   <si>
@@ -659,9 +635,6 @@
     <t>GW-06013</t>
   </si>
   <si>
-    <t>Douchewand Inloopdouche 60cm Veiligheidsglas 6 mm Chroom</t>
-  </si>
-  <si>
     <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-60cm-veiligheidsglas-6-mm-chroom-81031/</t>
   </si>
   <si>
@@ -752,9 +725,6 @@
     <t>GW-04013</t>
   </si>
   <si>
-    <t>Douchewand Inloopdouche 40cm Veiligheidsglas 6 mm Chroom</t>
-  </si>
-  <si>
     <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-40cm-veiligheidsglas-6-mm-chroom-81029/</t>
   </si>
   <si>
@@ -824,9 +794,6 @@
     <t>IPA10306C</t>
   </si>
   <si>
-    <t>Douchewand Inloopdouche 100cm Matte Strepen Veiligheidsglas 8mm Chroom</t>
-  </si>
-  <si>
     <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-matte-strepen-veiligheidsglas-8mm-chroom-11158/</t>
   </si>
   <si>
@@ -972,6 +939,39 @@
   </si>
   <si>
     <t>https://www.maxaro.nl/wastafels/waskommen/waskom-mintra-solid-surface-mat-wit-55x325cm-ovaal-7206/</t>
+  </si>
+  <si>
+    <t>Douchewand Inloopdouche Zircon Comfort 90cm Veiligheidsglas 6 mm Chroom</t>
+  </si>
+  <si>
+    <t>Douchewand Inloopdouche Zircon Comfort 120cm Veiligheidsglas 6 mm Chroom</t>
+  </si>
+  <si>
+    <t>Douchewand Inloopdouche Zircon Comfort 100cm Veiligheidsglas 6 mm Chroom</t>
+  </si>
+  <si>
+    <t>Douchewand Inloopdouche Pearl 100cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
+  </si>
+  <si>
+    <t>Douchewand Inloopdouche Pearl 90cm Zwarte Strepen Veiligheidsglas 8mm Mat Zwart</t>
+  </si>
+  <si>
+    <t>Douchewand Inloopdouche Zircon Comfort 80cm Veiligheidsglas 6 mm Chroom</t>
+  </si>
+  <si>
+    <t>Douchewand Inloopdouche Zircon Comfort 70cm Veiligheidsglas 6 mm Chroom</t>
+  </si>
+  <si>
+    <t>Douchewand Inloopdouche Zircon Comfort 60cm Veiligheidsglas 6 mm Chroom</t>
+  </si>
+  <si>
+    <t>Douchewand Inloopdouche Zircon Comfort 50cm Veiligheidsglas 6 mm Chroom</t>
+  </si>
+  <si>
+    <t>Douchewand Inloopdouche Zircon Comfort 40cm Veiligheidsglas 6 mm Chroom</t>
+  </si>
+  <si>
+    <t>Douchewand Inloopdouche Pearl 100cm Matte Strepen Veiligheidsglas 8mm Chroom</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1395,47 +1395,47 @@
         <v>16</v>
       </c>
       <c r="I2">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>1045</v>
+        <v>279</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1447,10 +1447,10 @@
         <v>16</v>
       </c>
       <c r="I4">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1461,657 +1461,657 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
       </c>
       <c r="I5">
         <v>150</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>329</v>
+        <v>199</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I7">
-        <v>199</v>
+        <v>1045</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
       </c>
       <c r="I8">
         <v>180</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I9">
-        <v>229</v>
+        <v>425</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I10">
-        <v>1045</v>
+        <v>259</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I11">
-        <v>259</v>
+        <v>1045</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
         <v>31</v>
       </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
       <c r="I12">
-        <v>425</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I13">
-        <v>229</v>
+        <v>310</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I14">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I15">
         <v>229</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
         <v>31</v>
       </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
       <c r="I16">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I18">
-        <v>405</v>
+        <v>199</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I19">
-        <v>310</v>
+        <v>139</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I20">
         <v>300</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I21">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="K21" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I22">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I23">
         <v>319</v>
       </c>
       <c r="K23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I24">
         <v>47.95</v>
       </c>
       <c r="K24" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>311</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
         <v>31</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
       </c>
       <c r="I25">
         <v>140</v>
       </c>
       <c r="K25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="I26">
-        <v>27.95</v>
+        <v>340</v>
       </c>
       <c r="K26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
         <v>31</v>
       </c>
-      <c r="H27" t="s">
-        <v>92</v>
-      </c>
       <c r="I27">
-        <v>285</v>
+        <v>445</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="I28">
-        <v>340</v>
+        <v>27.95</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I29">
-        <v>445</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -2126,44 +2126,44 @@
         <v>129</v>
       </c>
       <c r="K30" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="I31">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -2178,356 +2178,356 @@
         <v>149</v>
       </c>
       <c r="K32" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" t="s">
         <v>151</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33">
+        <v>375</v>
+      </c>
+      <c r="K33" t="s">
         <v>152</v>
-      </c>
-      <c r="D33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33">
-        <v>209</v>
-      </c>
-      <c r="K33" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="I34">
-        <v>375</v>
+        <v>199</v>
       </c>
       <c r="K34" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" t="s">
         <v>159</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>160</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35">
+        <v>199</v>
+      </c>
+      <c r="K35" t="s">
         <v>161</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" t="s">
-        <v>162</v>
-      </c>
-      <c r="I35">
-        <v>29.95</v>
-      </c>
-      <c r="K35" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I36">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="K36" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I37">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="K37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="I38">
-        <v>215</v>
+        <v>29.95</v>
       </c>
       <c r="K38" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I39">
-        <v>219</v>
+        <v>425</v>
       </c>
       <c r="K39" t="s">
-        <v>179</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40">
+        <v>209</v>
+      </c>
+      <c r="K40" t="s">
         <v>180</v>
-      </c>
-      <c r="B40" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40">
-        <v>309</v>
-      </c>
-      <c r="K40" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I41">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K41" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="I42">
-        <v>425</v>
+        <v>334</v>
       </c>
       <c r="K42" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" t="s">
         <v>31</v>
       </c>
-      <c r="H43" t="s">
-        <v>32</v>
-      </c>
       <c r="I43">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="K43" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44">
+        <v>255</v>
+      </c>
+      <c r="K44" t="s">
         <v>190</v>
-      </c>
-      <c r="B44" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" t="s">
-        <v>192</v>
-      </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" t="s">
-        <v>92</v>
-      </c>
-      <c r="I44">
-        <v>334</v>
-      </c>
-      <c r="K44" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>309</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
       </c>
       <c r="G45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s">
         <v>31</v>
       </c>
-      <c r="H45" t="s">
-        <v>92</v>
-      </c>
       <c r="I45">
-        <v>255</v>
+        <v>405</v>
       </c>
       <c r="K45" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -2542,111 +2542,111 @@
         <v>129</v>
       </c>
       <c r="K46" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="I47">
-        <v>305</v>
+        <v>165</v>
       </c>
       <c r="K47" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" t="s">
         <v>206</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>207</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48">
+        <v>360</v>
+      </c>
+      <c r="K48" t="s">
         <v>208</v>
-      </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48">
-        <v>110</v>
-      </c>
-      <c r="K48" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="G49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" t="s">
         <v>31</v>
       </c>
-      <c r="H49" t="s">
-        <v>32</v>
-      </c>
       <c r="I49">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K49" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
       </c>
       <c r="G50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" t="s">
         <v>31</v>
       </c>
-      <c r="H50" t="s">
-        <v>32</v>
-      </c>
       <c r="I50">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="K50" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2663,13 +2663,13 @@
         <v>14</v>
       </c>
       <c r="G51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" t="s">
         <v>31</v>
       </c>
-      <c r="H51" t="s">
-        <v>105</v>
-      </c>
       <c r="I51">
-        <v>165</v>
+        <v>320</v>
       </c>
       <c r="K51" t="s">
         <v>221</v>
@@ -2677,117 +2677,117 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D52" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="I52">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c r="K52" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
       </c>
       <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
         <v>31</v>
-      </c>
-      <c r="H53" t="s">
-        <v>32</v>
       </c>
       <c r="I53">
         <v>445</v>
       </c>
       <c r="K53" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="I54">
-        <v>320</v>
+        <v>105</v>
       </c>
       <c r="K54" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I55">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="K55" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -2802,486 +2802,486 @@
         <v>169</v>
       </c>
       <c r="K56" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I57">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="K57" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>239</v>
+      </c>
+      <c r="B58" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" t="s">
         <v>241</v>
       </c>
-      <c r="B58" t="s">
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>145</v>
+      </c>
+      <c r="K58" t="s">
         <v>242</v>
-      </c>
-      <c r="D58" t="s">
-        <v>243</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58">
-        <v>100</v>
-      </c>
-      <c r="K58" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" t="s">
         <v>245</v>
       </c>
-      <c r="B59" t="s">
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59">
+        <v>370</v>
+      </c>
+      <c r="K59" t="s">
         <v>246</v>
-      </c>
-      <c r="D59" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59">
-        <v>159</v>
-      </c>
-      <c r="K59" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D60" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I60">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K60" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B61" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
       </c>
       <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="s">
         <v>31</v>
       </c>
-      <c r="H61" t="s">
-        <v>32</v>
-      </c>
       <c r="I61">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" t="s">
+        <v>316</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62">
+        <v>340</v>
+      </c>
+      <c r="K62" t="s">
         <v>257</v>
-      </c>
-      <c r="B62" t="s">
-        <v>258</v>
-      </c>
-      <c r="D62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" t="s">
-        <v>105</v>
-      </c>
-      <c r="I62">
-        <v>159</v>
-      </c>
-      <c r="K62" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D63" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I63">
         <v>304</v>
       </c>
       <c r="K63" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D64" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="I64">
-        <v>340</v>
+        <v>159</v>
       </c>
       <c r="K64" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I65">
         <v>105</v>
       </c>
       <c r="K65" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B66" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H66" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I66">
         <v>115</v>
       </c>
       <c r="K66" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I67">
         <v>145</v>
       </c>
       <c r="K67" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B68" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D68" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H68" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I68">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K68" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B69" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I69">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="K69" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B70" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I70">
         <v>115</v>
       </c>
       <c r="K70" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B71" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D71" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I71">
         <v>149</v>
       </c>
       <c r="K71" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" t="s">
+        <v>293</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s">
+        <v>100</v>
+      </c>
+      <c r="I72">
+        <v>99</v>
+      </c>
+      <c r="K72" t="s">
         <v>294</v>
-      </c>
-      <c r="B72" t="s">
-        <v>295</v>
-      </c>
-      <c r="D72" t="s">
-        <v>296</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" t="s">
-        <v>105</v>
-      </c>
-      <c r="I72">
-        <v>109</v>
-      </c>
-      <c r="K72" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="B73" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D73" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I73">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K73" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B74" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D74" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I74">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="K74" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B75" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D75" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
@@ -3290,39 +3290,39 @@
         <v>21</v>
       </c>
       <c r="H75" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I75">
         <v>1995</v>
       </c>
       <c r="K75" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B76" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D76" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="H76" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I76">
         <v>229</v>
       </c>
       <c r="K76" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/maxaro.xlsx
+++ b/outputs/maxaro.xlsx
@@ -488,25 +488,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SW108325</t>
+          <t>SW108328</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-60cm-6553/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-80cm-6554/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>149.95</t>
+          <t>179.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>5 days delivery</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -580,25 +580,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SW108328</t>
+          <t>SW1009</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-80cm-6554/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-90cm-veiligheidsglas-6-mm-chroom-81034/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>179.95</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -608,93 +608,93 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SW1009</t>
+          <t>SW161922</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-90cm-veiligheidsglas-6-mm-chroom-81034/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-100cm-6555/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>229</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SW161922</t>
+          <t>SW108325</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-100cm-6555/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-60cm-6553/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>149.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -768,50 +768,46 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SW208804</t>
+          <t>SW225871</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180</v>
+        <v>1045</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-6-mm-chroom-82443/</t>
+          <t>https://www.maxaro.nl/baden/half-vrijstaande-baden/halfvrijstaand-bad-velino-180x80cm-acryl-glans-wit-81175/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>999</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>5 days delivery</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Half vrijstaande baden</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Half vrijstaande baden</t>
         </is>
       </c>
     </row>
@@ -831,7 +827,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -864,51 +860,75 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sw6328</t>
+          <t>SW1008</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-capri-180x80cm-acryl-glans-wit-6661/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-veiligheidsglas-6-mm-chroom-81035/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>16-09-2021</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>159.9</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SW1008</t>
+          <t>SW238204</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160</v>
+        <v>425</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-veiligheidsglas-6-mm-chroom-81035/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11190/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>330.95</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -940,25 +960,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SW238202</t>
+          <t>SW208804</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>405</v>
+        <v>180</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11157/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-6-mm-chroom-82443/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>305.95</t>
+          <t>159.9</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -990,25 +1010,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SW238204</t>
+          <t>SW6238</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>425</v>
+        <v>229</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11190/</t>
+          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-ponza-180x80cm-acryl-glans-wit-6660/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>330.95</t>
+          <t>199</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1018,52 +1038,48 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SW225871</t>
+          <t>SW6328</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1045</v>
+        <v>229</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/half-vrijstaande-baden/halfvrijstaand-bad-velino-180x80cm-acryl-glans-wit-81175/</t>
+          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-capri-180x80cm-acryl-glans-wit-6661/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>199</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1073,64 +1089,84 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Half vrijstaande baden</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Half vrijstaande baden</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sw6238</t>
+          <t>SW238225</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>229</v>
+        <v>310</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-ponza-180x80cm-acryl-glans-wit-6660/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-110cm-chroom-12610/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+          <t>16-09-2021</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>219.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Douchedeuren</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Douchedeuren</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SW1125</t>
+          <t>SW108326</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-piana-170x75cm-acryl-glans-wit-6656/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-led-verlichting-lumo-100x60cm-6503/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>264</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1140,43 +1176,43 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SW108326</t>
+          <t>SW238202</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>229</v>
+        <v>405</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-led-verlichting-lumo-100x60cm-6503/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11157/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>305.95</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1186,98 +1222,98 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SW23914</t>
+          <t>SW1125</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vierkant-smc-hoogglans-wit-13105/</t>
+          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-piana-170x75cm-acryl-glans-wit-6656/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>117.95</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Douchebak</t>
-        </is>
-      </c>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SW238225</t>
+          <t>SW23914</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310</v>
+        <v>139</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-110cm-chroom-12610/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vierkant-smc-hoogglans-wit-13105/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>219.99</t>
+          <t>117.95</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>4 weeks delivery</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1287,84 +1323,88 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Douchebak</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SW238222</t>
+          <t>SW238224</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-120x60cm-6524/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-100cm-chroom-12608/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>174.95</t>
+          <t>209.99</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SW238224</t>
+          <t>SW238201</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-100cm-chroom-12608/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-90cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11123/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>209.99</t>
+          <t>290.95</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1379,88 +1419,88 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SW238201</t>
+          <t>SW238222</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395</v>
+        <v>169</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-90cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11123/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-120x60cm-6524/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>290.95</t>
+          <t>174.95</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>3 weeks delivery</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SW358008</t>
+          <t>SW238205</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>340</v>
+        <v>445</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-8mm-mat-zwart-11185/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11219/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>239.95</t>
+          <t>374.95</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1492,100 +1532,100 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SW209331</t>
+          <t>SW2328</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47.95</v>
+        <v>140</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkameraccessoires/wc-borstels/wc-borstel-radius-black-hangend-zwart-13223/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-veiligheidsglas-6-mm-chroom-81033/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>32.95</t>
+          <t>159.9</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0 hours delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Badkameraccessoires</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Toilet accessoires</t>
+          <t>Douchewanden</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>WC borstelgarnituren</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>WC borstelgarnituren</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SW209323</t>
+          <t>SW358008</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.95</v>
+        <v>340</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkameraccessoires/toiletrolhouders/toiletrolhouder-radius-black-zwart-13244/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-8mm-mat-zwart-11185/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20.99</t>
+          <t>239.95</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0 hours delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Badkameraccessoires</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Toilet accessoires</t>
+          <t>Douchewanden</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Toiletrolhouders</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Toiletrolhouders</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1645,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1638,125 +1678,125 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SW2328</t>
+          <t>SW209331</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>140</v>
+        <v>47.95</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-veiligheidsglas-6-mm-chroom-81033/</t>
+          <t>https://www.maxaro.nl/badkameraccessoires/wc-borstels/wc-borstel-radius-black-hangend-zwart-13223/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>32.95</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>0 hours delivery</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Badkameraccessoires</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
+          <t>Toilet accessoires</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>WC borstelgarnituren</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>WC borstelgarnituren</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SW238205</t>
+          <t>SW209323</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>445</v>
+        <v>27.95</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11219/</t>
+          <t>https://www.maxaro.nl/badkameraccessoires/toiletrolhouders/toiletrolhouder-radius-black-zwart-13244/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>374.95</t>
+          <t>20.99</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>0 hours delivery</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Badkameraccessoires</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
+          <t>Toilet accessoires</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Toiletrolhouders</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Toiletrolhouders</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SW238218</t>
+          <t>SW208812</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-meso-120x60cm-6534/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-zircon-comfort-90cm-12575/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>249.99</t>
+          <t>265.5</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1766,43 +1806,43 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SW208812</t>
+          <t>SW1211</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-zircon-comfort-90cm-12575/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-essence-helder-90x90cm-vierkant-met-schuifdeuren-12273/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>265.5</t>
+          <t>249.95</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1817,135 +1857,135 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Douchecabines</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Douchecabines</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SW1211</t>
+          <t>SW238220</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-essence-helder-90x90cm-vierkant-met-schuifdeuren-12273/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-80x60cm-6517/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>249.95</t>
+          <t>129.95</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SW238229</t>
+          <t>SW238221</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>309</v>
+        <v>149</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-allure-helder-90x90cm-vierkant-met-schuifdeuren-12206/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-100x60cm-6521/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>329.99</t>
+          <t>139.95</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SW238220</t>
+          <t>SW238218</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-80x60cm-6517/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-meso-120x60cm-6534/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>129.95</t>
+          <t>249.99</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1968,168 +2008,172 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SW20529</t>
+          <t>SW238200</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>219</v>
+        <v>375</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-capri-170x75cm-acryl-glans-wit-6655/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11097/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>269.95</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>2 weeks delivery</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SW238221</t>
+          <t>SW237319</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>149</v>
+        <v>29.95</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-100x60cm-6521/</t>
+          <t>https://www.maxaro.nl/badkameraccessoires/douchewissers/douchewisser-hangend-glasbevestiging-zwart-13320/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>139.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>0 hours delivery</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Badkameraccessoires</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Glaswissers</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Glaswissers</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SW237319</t>
+          <t>SW238226</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.95</v>
+        <v>215</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkameraccessoires/douchewissers/douchewisser-hangend-glasbevestiging-zwart-13320/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-essence-120cm-chroom-12636/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>229.99</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0 hours delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Badkameraccessoires</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Glaswissers</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Glaswissers</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SW238226</t>
+          <t>SW238229</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-essence-120cm-chroom-12636/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-allure-helder-90x90cm-vierkant-met-schuifdeuren-12206/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>229.99</t>
+          <t>329.99</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>2 weeks delivery</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2139,43 +2183,43 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Douchecabines</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Douchecabines</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SW238200</t>
+          <t>SW1208</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>375</v>
+        <v>199</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11097/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-essence-90x90cm-kwartrond-met-schuifdeuren-12389/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>269.95</t>
+          <t>249.95</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2185,97 +2229,89 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchecabines</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SW238198</t>
+          <t>SW20529</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>425</v>
+        <v>219</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11190/</t>
+          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-capri-170x75cm-acryl-glans-wit-6655/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SW1208</t>
+          <t>SW238198</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>199</v>
+        <v>425</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-essence-90x90cm-kwartrond-met-schuifdeuren-12389/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11190/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>249.95</t>
+          <t>349</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2285,13 +2321,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2351,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2357,7 +2397,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2403,7 +2443,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2440,50 +2480,46 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SW208803</t>
+          <t>SW238219</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-70cm-veiligheidsglas-6-mm-chroom-81032/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-60x80cm-6516/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>119.95</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>0 hours delivery</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2539,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2540,25 +2576,25 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SW238195</t>
+          <t>SW208803</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-matte-strepen-veiligheidsglas-8mm-chroom-11191/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-70cm-veiligheidsglas-6-mm-chroom-81032/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>199.95</t>
+          <t>159.9</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2590,30 +2626,30 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SW23918</t>
+          <t>SW447</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-120x90cm-rechthoek-acryl-hoogglans-wit-13058/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-90cm-draaideur-zircon-comfort-12421/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>149.99</t>
+          <t>229.95</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2623,42 +2659,38 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Douchebak</t>
-        </is>
-      </c>
+          <t>Douchedeuren</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SW447</t>
+          <t>SW238195</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>255</v>
+        <v>360</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-90cm-draaideur-zircon-comfort-12421/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-matte-strepen-veiligheidsglas-8mm-chroom-11191/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>229.95</t>
+          <t>199.95</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2673,59 +2705,67 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SW238219</t>
+          <t>SW23918</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-60x80cm-6516/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-120x90cm-rechthoek-acryl-hoogglans-wit-13058/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>119.95</t>
+          <t>149.99</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0 hours delivery</t>
+          <t>4 weeks delivery</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchebak</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2785,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2782,30 +2822,30 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SW23913</t>
+          <t>SW208810</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>105</v>
+        <v>320</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-vierkant-acryl-hoogglans-wit-13078/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-quartz-120cm-veiligheidsglas-8mm-chroom-12007/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>102.95</t>
+          <t>305</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2815,42 +2855,42 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
+          <t>Douchewanden</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SW208810</t>
+          <t>SW208801</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-quartz-120cm-veiligheidsglas-8mm-chroom-12007/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-50cm-veiligheidsglas-6-mm-chroom-81030/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>159.9</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2882,30 +2922,30 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SW208801</t>
+          <t>SW238199</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>110</v>
+        <v>445</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-50cm-veiligheidsglas-6-mm-chroom-81030/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11219/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>389</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2932,30 +2972,30 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SW238199</t>
+          <t>SW23913</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>445</v>
+        <v>105</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11219/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-vierkant-acryl-hoogglans-wit-13078/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>102.95</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>4 weeks delivery</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2965,17 +3005,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
+          <t>Douchebakken</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchebak</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchebak</t>
         </is>
       </c>
     </row>
@@ -2995,7 +3035,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3041,7 +3081,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3074,25 +3114,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SW238194</t>
+          <t>SW238217</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>340</v>
+        <v>189</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-matte-strepen-veiligheidsglas-8mm-chroom-11158/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-100x60cm-6532/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>199.95</t>
+          <t>228.99</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3102,22 +3142,18 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3173,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3147,7 +3183,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3174,30 +3210,30 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SW23916</t>
+          <t>SW238194</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>145</v>
+        <v>340</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x90cm-rechthoek-acryl-hoogglans-wit-13053/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-matte-strepen-veiligheidsglas-8mm-chroom-11158/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>139.95</t>
+          <t>199.95</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3207,42 +3243,42 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
+          <t>Douchewanden</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SW238217</t>
+          <t>SW358009</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>189</v>
+        <v>370</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-100x60cm-6532/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-veiligheidsglas-8mm-mat-zwart-11211/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>228.99</t>
+          <t>244.95</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3252,48 +3288,52 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SW358009</t>
+          <t>SW23916</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>370</v>
+        <v>145</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-veiligheidsglas-8mm-mat-zwart-11211/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x90cm-rechthoek-acryl-hoogglans-wit-13053/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>244.95</t>
+          <t>139.95</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>4 weeks delivery</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3303,42 +3343,42 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
+          <t>Douchebakken</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchebak</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchebak</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SW238230</t>
+          <t>SW238215</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>304</v>
+        <v>159</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-zircon-essence-helder-80x80cm-vierkant-met-draaideur-10935/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-60x70cm-6528/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>379.99</t>
+          <t>189.99</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3348,18 +3388,18 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3419,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3429,7 +3469,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3439,7 +3479,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>15 weeks delivery</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3466,25 +3506,25 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SW23919</t>
+          <t>SW238230</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-kwartrond-smc-hoogglans-wit-13090/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-zircon-essence-helder-80x80cm-vierkant-met-draaideur-10935/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>109.99</t>
+          <t>379.99</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3499,24 +3539,20 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Douchebak</t>
-        </is>
-      </c>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchecabines</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SW238215</t>
+          <t>SW23915</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3524,17 +3560,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-60x70cm-6528/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vierkant-smc-hoogglans-wit-13106/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>189.99</t>
+          <t>153.95</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3544,18 +3580,22 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchebak</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3615,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3612,25 +3652,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SW23915</t>
+          <t>SW23919</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vierkant-smc-hoogglans-wit-13106/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-kwartrond-smc-hoogglans-wit-13090/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>153.95</t>
+          <t>109.99</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3662,25 +3702,25 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SW23921</t>
+          <t>SW23850</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-kwartrond-smc-hoogglans-wit-13092/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vijfhoek-acryl-hoogglans-wit-13047/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>144.99</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3712,30 +3752,30 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SW23856</t>
+          <t>SW23921</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vierkant-acryl-hoogglans-wit-13081/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-kwartrond-smc-hoogglans-wit-13092/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>144.99</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3762,25 +3802,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SW23850</t>
+          <t>SW23852</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vijfhoek-acryl-hoogglans-wit-13047/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-kwartrond-acryl-hoogglans-wit-13050/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3812,30 +3852,30 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SW23852</t>
+          <t>SW23856</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-kwartrond-acryl-hoogglans-wit-13050/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vierkant-acryl-hoogglans-wit-13081/</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>4 weeks delivery</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3862,30 +3902,30 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SW23851</t>
+          <t>SW23853</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-kwartrond-acryl-hoogglans-wit-13049/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-kwartrond-acryl-hoogglans-wit-13051/</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3912,146 +3952,146 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SW23853</t>
+          <t>SW638770</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-kwartrond-acryl-hoogglans-wit-13051/</t>
+          <t>https://www.maxaro.nl/wastafels/waskommen/waskom-mintra-solid-surface-mat-wit-55x325cm-ovaal-7206/</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>199</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>14 weeks delivery</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Wastafels</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
+          <t>Alle wastafels</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Waskommen</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Waskommen</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SW638769</t>
+          <t>SW23851</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1995</v>
+        <v>99</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/vrijstaande-baden/vrijstaand-bad-solid-surface-tesino-180x85cm-mat-wit-6714/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-kwartrond-acryl-hoogglans-wit-13049/</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1 weeks delivery</t>
+          <t>4 weeks delivery</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Vrijstaande baden</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Vrijstaande baden</t>
+          <t>Douchebak</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SW638770</t>
+          <t>SW638769</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>229</v>
+        <v>1995</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/wastafels/waskommen/waskom-mintra-solid-surface-mat-wit-55x325cm-ovaal-7206/</t>
+          <t>https://www.maxaro.nl/baden/vrijstaande-baden/vrijstaand-bad-solid-surface-tesino-180x85cm-mat-wit-6714/</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>13-09-2021</t>
+          <t>16-09-2021</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>1595</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1 weeks delivery</t>
+          <t>14 weeks delivery</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Wastafels</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Alle wastafels</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Waskommen</t>
-        </is>
-      </c>
+          <t>Vrijstaande baden</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Waskommen</t>
+          <t>Vrijstaande baden</t>
         </is>
       </c>
     </row>

--- a/outputs/maxaro.xlsx
+++ b/outputs/maxaro.xlsx
@@ -488,25 +488,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SW108328</t>
+          <t>SW161922</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-80cm-6554/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-100cm-6555/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>179.95</t>
+          <t>259.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -534,71 +534,71 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SW161911</t>
+          <t>SW108328</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1045</v>
+        <v>289</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/half-vrijstaande-baden/half-vrijstaand-bad-marano-170x80cm-acryl-glans-wit-6682/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-80cm-6554/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>852.99</t>
+          <t>204.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Half vrijstaande baden</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Half vrijstaande baden</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SW1009</t>
+          <t>SW108325</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-90cm-veiligheidsglas-6-mm-chroom-81034/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-60cm-6553/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>169.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -608,47 +608,43 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SW161922</t>
+          <t>SW161911</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>329</v>
+        <v>1045</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-100cm-6555/</t>
+          <t>https://www.maxaro.nl/baden/half-vrijstaande-baden/half-vrijstaand-bad-marano-170x80cm-acryl-glans-wit-6682/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>1279.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -658,43 +654,43 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Half vrijstaande baden</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Half vrijstaande baden</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SW108325</t>
+          <t>SW1009</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219</v>
+        <v>154.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/ronde-badkamerspiegel-met-led-verlichting-60cm-6553/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-90cm-veiligheidsglas-6-mm-chroom-81034/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>149.95</t>
+          <t>234.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -704,18 +700,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -735,12 +735,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>179.95</t>
+          <t>189.95</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -758,7 +758,11 @@
           <t>Regendouches</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Kranen</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Regendouches</t>
@@ -768,46 +772,50 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SW225871</t>
+          <t>SW208804</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1045</v>
+        <v>184.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/half-vrijstaande-baden/halfvrijstaand-bad-velino-180x80cm-acryl-glans-wit-81175/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-6-mm-chroom-82443/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>279.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5 days delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Half vrijstaande baden</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Half vrijstaande baden</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -827,7 +835,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -860,25 +868,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SW1008</t>
+          <t>SW225871</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160</v>
+        <v>1095</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-veiligheidsglas-6-mm-chroom-81035/</t>
+          <t>https://www.maxaro.nl/baden/half-vrijstaande-baden/halfvrijstaand-bad-velino-180x80cm-acryl-glans-wit-81175/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>1299.95</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -888,22 +896,18 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Half vrijstaande baden</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Half vrijstaande baden</t>
         </is>
       </c>
     </row>
@@ -923,7 +927,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -953,32 +957,32 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SW208804</t>
+          <t>SW6328</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-6-mm-chroom-82443/</t>
+          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-capri-180x80cm-acryl-glans-wit-6661/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>206.95</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -988,22 +992,18 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
     </row>
@@ -1023,17 +1023,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>319</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>11 weeks delivery</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1056,71 +1056,73 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SW6328</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>229</v>
-      </c>
+          <t>SW238202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-capri-180x80cm-acryl-glans-wit-6661/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-pearl-100cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11157/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>305.95</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>48 hours delivery</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SW238225</t>
+          <t>SW1008</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>310</v>
+        <v>164.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-110cm-chroom-12610/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-veiligheidsglas-6-mm-chroom-81035/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>219.99</t>
+          <t>249.95</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1135,84 +1137,88 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SW108326</t>
+          <t>SW238225</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>229</v>
+        <v>363</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-led-verlichting-lumo-100x60cm-6503/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-110cm-chroom-12610/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>48 hours delivery</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SW238202</t>
+          <t>SW108326</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>405</v>
+        <v>229</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11157/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-led-verlichting-lumo-100x60cm-6503/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>305.95</t>
+          <t>264</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1222,22 +1228,18 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1259,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>206.95</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1303,17 +1305,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>117.95</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1333,7 +1335,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1346,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1353,12 +1355,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>209.99</t>
+          <t>269.95</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1389,17 +1391,15 @@
           <t>SW238201</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>395</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-90cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11123/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-pearl-90cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11123/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1429,78 +1429,80 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SW238222</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>169</v>
-      </c>
+          <t>SW358008</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-120x60cm-6524/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-8mm-mat-zwart-11185/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>174.95</t>
+          <t>284.95</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SW238205</t>
+          <t>SW238222</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>445</v>
+        <v>179</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11219/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-120x60cm-6524/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>374.95</t>
+          <t>194.95</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1510,52 +1512,48 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SW2328</t>
+          <t>SW238231</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>140</v>
+        <v>328</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-veiligheidsglas-6-mm-chroom-81033/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-zircon-essence-helder-90x90cm-vierkant-met-draaideur-80992/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>399.95</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1565,42 +1563,38 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchecabines</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SW358008</t>
+          <t>SW2328</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>340</v>
+        <v>144.5</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-veiligheidsglas-8mm-mat-zwart-11185/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-veiligheidsglas-6-mm-chroom-81033/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>239.95</t>
+          <t>224.95</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1625,133 +1619,133 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SW238231</t>
+          <t>SW209323</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>319</v>
+        <v>34.95</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-zircon-essence-helder-90x90cm-vierkant-met-draaideur-80992/</t>
+          <t>https://www.maxaro.nl/badkameraccessoires/toiletrolhouders/toiletrolhouder-radius-black-zwart-13244/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>399.95</t>
+          <t>20.99</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>0 hours delivery</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Badkameraccessoires</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>Toilet accessoires</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Toiletrolhouders</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Toilet accessoires</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SW209331</t>
+          <t>SW208812</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.95</v>
+        <v>294</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkameraccessoires/wc-borstels/wc-borstel-radius-black-hangend-zwart-13223/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-zircon-comfort-90cm-12575/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>32.95</t>
+          <t>239</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0 hours delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Badkameraccessoires</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Toilet accessoires</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>WC borstelgarnituren</t>
-        </is>
-      </c>
+          <t>Douchedeuren</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>WC borstelgarnituren</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SW209323</t>
+          <t>SW209331</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.95</v>
+        <v>49.95</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkameraccessoires/toiletrolhouders/toiletrolhouder-radius-black-zwart-13244/</t>
+          <t>https://www.maxaro.nl/badkameraccessoires/wc-borstels/wc-borstel-radius-black-hangend-zwart-13223/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20.99</t>
+          <t>32.95</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0 hours delivery</t>
+          <t>7 weeks delivery</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1766,37 +1760,37 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Toiletrolhouders</t>
+          <t>WC borstelgarnituren</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Toiletrolhouders</t>
+          <t>Toilet accessoires</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SW208812</t>
+          <t>SW238218</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-zircon-comfort-90cm-12575/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-meso-120x60cm-6534/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>265.5</t>
+          <t>249.99</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1806,43 +1800,43 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SW1211</t>
+          <t>SW238220</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-essence-helder-90x90cm-vierkant-met-schuifdeuren-12273/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-80x60cm-6517/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>249.95</t>
+          <t>149.95</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1852,89 +1846,93 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SW238220</t>
+          <t>SW238205</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129</v>
+        <v>445</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-80x60cm-6517/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11219/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>129.95</t>
+          <t>374.95</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SW238221</t>
+          <t>SW238200</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>149</v>
+        <v>375</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-100x60cm-6521/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11097/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>139.95</t>
+          <t>269.95</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1944,43 +1942,47 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SW238218</t>
+          <t>SW238221</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-meso-120x60cm-6534/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-100x60cm-6521/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>249.99</t>
+          <t>174.95</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2008,30 +2010,30 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SW238200</t>
+          <t>SW1211</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>375</v>
+        <v>209</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-80cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11097/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-essence-helder-90x90cm-vierkant-met-schuifdeuren-12273/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>269.95</t>
+          <t>259.95</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2041,17 +2043,13 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchecabines</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2069,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2108,7 +2106,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2117,17 +2115,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>229.99</t>
+          <t>289.95</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>48 hours delivery</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2150,30 +2148,30 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SW238229</t>
+          <t>SW1208</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-allure-helder-90x90cm-vierkant-met-schuifdeuren-12206/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-essence-90x90cm-kwartrond-met-schuifdeuren-12389/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>329.99</t>
+          <t>259.95</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2196,25 +2194,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SW1208</t>
+          <t>SW20529</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-essence-90x90cm-kwartrond-met-schuifdeuren-12389/</t>
+          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-capri-170x75cm-acryl-glans-wit-6655/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>249.95</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2224,43 +2222,43 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Inbouwbaden</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SW20529</t>
+          <t>SW238229</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>219</v>
+        <v>399</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/baden/ligbaden/ligbad-capri-170x75cm-acryl-glans-wit-6655/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-ruby-allure-helder-90x90cm-vierkant-met-schuifdeuren-12206/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>329.99</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2270,18 +2268,18 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
+          <t>Douchecabines</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Inbouwbaden</t>
+          <t>Douchecabines</t>
         </is>
       </c>
     </row>
@@ -2301,17 +2299,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>289</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>2 weeks delivery</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2331,83 +2329,83 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SW238213</t>
+          <t>SW447</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>209</v>
+        <v>259.5</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-led-verlichting-lumo-80x60cm-84587/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-90cm-draaideur-zircon-comfort-12421/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>309.95</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>48 hours delivery</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SW238227</t>
+          <t>SW208803</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>334</v>
+        <v>134.5</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-130cm-chroom-12614/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-70cm-veiligheidsglas-6-mm-chroom-81032/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>239.99</t>
+          <t>214.95</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2417,13 +2415,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -2433,27 +2435,25 @@
           <t>SW238196</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>405</v>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11157/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-pearl-100cm-zwarte-strepen-veiligheidsglas-8mm-mat-zwart-11157/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>254</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2493,12 +2493,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>119.95</t>
+          <t>139.95</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2526,25 +2526,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SW208805</t>
+          <t>SW238213</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-veiligheidsglas-8mm-chroom-11210/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-led-verlichting-lumo-80x60cm-84587/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>199.9</t>
+          <t>244</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2554,47 +2554,41 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Inloopdouches</t>
-        </is>
-      </c>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SW208803</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>130</v>
-      </c>
+          <t>SW208805</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-70cm-veiligheidsglas-6-mm-chroom-81032/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-veiligheidsglas-8mm-chroom-11210/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>314.95</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2619,32 +2613,32 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SW447</t>
+          <t>SW238227</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-90cm-draaideur-zircon-comfort-12421/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchewand-met-schuifdeur-ruby-allure-130cm-chroom-12614/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>229.95</t>
+          <t>299.95</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2675,9 +2669,7 @@
           <t>SW238195</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>360</v>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-120cm-matte-strepen-veiligheidsglas-8mm-chroom-11191/</t>
@@ -2685,12 +2677,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>199.95</t>
+          <t>289.95</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2715,37 +2707,35 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SW23918</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>165</v>
-      </c>
+          <t>SW208810</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-120x90cm-rechthoek-acryl-hoogglans-wit-13058/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-quartz-120cm-veiligheidsglas-8mm-chroom-12007/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>149.99</t>
+          <t>305</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2755,42 +2745,42 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
+          <t>Douchewanden</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SW208802</t>
+          <t>SW23918</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-60cm-veiligheidsglas-6-mm-chroom-81031/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-120x90cm-rechthoek-acryl-hoogglans-wit-13058/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>190.95</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2805,42 +2795,42 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
+          <t>Douchebakken</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchebak</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SW208810</t>
+          <t>SW23913</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>320</v>
+        <v>115</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-quartz-120cm-veiligheidsglas-8mm-chroom-12007/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-vierkant-acryl-hoogglans-wit-13078/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2855,17 +2845,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
+          <t>Douchebakken</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchebak</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2866,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>110</v>
+        <v>114.5</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2885,17 +2875,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>159.9</t>
+          <t>134</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2915,7 +2905,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -2935,17 +2925,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>309</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>48 hours delivery</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2965,37 +2955,37 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SW23913</t>
+          <t>SW208813</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>105</v>
+        <v>308</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-vierkant-acryl-hoogglans-wit-13078/</t>
+          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-zircon-comfort-100cm-12576/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>102.95</t>
+          <t>282.95</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3005,42 +2995,38 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Douchebak</t>
-        </is>
-      </c>
+          <t>Douchedeuren</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchedeuren</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SW208813</t>
+          <t>SW238217</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchedeuren/douchedeur-zircon-comfort-100cm-12576/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-100x60cm-6532/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>274.5</t>
+          <t>228.99</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3050,18 +3036,18 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Douchedeuren</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3058,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3081,7 +3067,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3114,25 +3100,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SW238217</t>
+          <t>SW208802</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>189</v>
+        <v>124.5</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-100x60cm-6532/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-60cm-veiligheidsglas-6-mm-chroom-81031/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>228.99</t>
+          <t>199.95</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3142,43 +3128,47 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Spiegels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Spiegel met verlichting</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SW208800</t>
+          <t>SW238194</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-40cm-veiligheidsglas-6-mm-chroom-81029/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-matte-strepen-veiligheidsglas-8mm-chroom-11158/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>119.9</t>
+          <t>269.95</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3203,32 +3193,32 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SW238194</t>
+          <t>SW23916</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>340</v>
+        <v>155</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-100cm-matte-strepen-veiligheidsglas-8mm-chroom-11158/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x90cm-rechthoek-acryl-hoogglans-wit-13053/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>199.95</t>
+          <t>174.95</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3243,17 +3233,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Douchewanden</t>
+          <t>Douchebakken</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchebak</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
@@ -3263,9 +3253,7 @@
           <t>SW358009</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>370</v>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-140cm-veiligheidsglas-8mm-mat-zwart-11211/</t>
@@ -3273,12 +3261,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>244.95</t>
+          <t>319.95</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3303,64 +3291,60 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Inloopdouches</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SW23916</t>
+          <t>SW238215</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x90cm-rechthoek-acryl-hoogglans-wit-13053/</t>
+          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-60x70cm-6528/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>139.95</t>
+          <t>189.99</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Spiegels</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Douchebak</t>
-        </is>
-      </c>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Spiegel met verlichting</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SW238215</t>
+          <t>SW23915</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -3368,40 +3352,20 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/badkamerspiegels/badkamerspiegels-met-verlichting/badkamerspiegel-met-verlichting-60x70cm-6528/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vierkant-smc-hoogglans-wit-13106/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>189.99</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>24 hours delivery</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Spiegels</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Spiegel met verlichting</t>
-        </is>
-      </c>
+          <t>26-01-2022</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Spiegel met verlichting</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3410,7 +3374,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3419,7 +3383,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3429,7 +3393,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>11 weeks delivery</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3449,14 +3413,14 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SW23855</t>
+          <t>SW23919</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3464,22 +3428,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vierkant-acryl-hoogglans-wit-13079/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-kwartrond-smc-hoogglans-wit-13090/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>109.99</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>15 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3499,37 +3463,37 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SW238230</t>
+          <t>SW23921</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>304</v>
+        <v>145</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-zircon-essence-helder-80x80cm-vierkant-met-draaideur-10935/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-kwartrond-smc-hoogglans-wit-13092/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>379.99</t>
+          <t>144.99</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>11 weeks delivery</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3539,38 +3503,42 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Douchecabines</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SW23915</t>
+          <t>SW208800</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>159</v>
+        <v>104.5</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vierkant-smc-hoogglans-wit-13106/</t>
+          <t>https://www.maxaro.nl/douches/inloopdouches/douchewand-inloopdouche-40cm-veiligheidsglas-6-mm-chroom-81029/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>153.95</t>
+          <t>179.95</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3585,17 +3553,17 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
+          <t>Douchewanden</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Inloopdouches</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchewanden</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3574,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3615,12 +3583,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3645,37 +3613,37 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SW23919</t>
+          <t>SW23855</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-kwartrond-smc-hoogglans-wit-13090/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vierkant-acryl-hoogglans-wit-13079/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>109.99</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>11 weeks delivery</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3695,37 +3663,37 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SW23850</t>
+          <t>SW238230</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>135</v>
+        <v>313</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vijfhoek-acryl-hoogglans-wit-13047/</t>
+          <t>https://www.maxaro.nl/douches/douchecabines/douchecabine-zircon-essence-helder-80x80cm-vierkant-met-draaideur-10935/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>379.99</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>24 hours delivery</t>
+          <t>1 weeks delivery</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3735,42 +3703,38 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Douchebak</t>
-        </is>
-      </c>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchecabines</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SW23921</t>
+          <t>SW23856</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-kwartrond-smc-hoogglans-wit-13092/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vierkant-acryl-hoogglans-wit-13081/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>144.99</t>
+          <t>149</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3795,27 +3759,27 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SW23852</t>
+          <t>SW23850</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-kwartrond-acryl-hoogglans-wit-13050/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-vijfhoek-acryl-hoogglans-wit-13047/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3845,37 +3809,37 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SW23856</t>
+          <t>SW23851</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-vierkant-acryl-hoogglans-wit-13081/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-kwartrond-acryl-hoogglans-wit-13049/</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3895,32 +3859,32 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SW23853</t>
+          <t>SW23852</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-kwartrond-acryl-hoogglans-wit-13051/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-90x90cm-kwartrond-acryl-hoogglans-wit-13050/</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3945,107 +3909,107 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SW638770</t>
+          <t>SW23853</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/wastafels/waskommen/waskom-mintra-solid-surface-mat-wit-55x325cm-ovaal-7206/</t>
+          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-100x100cm-kwartrond-acryl-hoogglans-wit-13051/</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>139</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>14 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Wastafels</t>
+          <t>Douches</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Alle wastafels</t>
+          <t>Douchebakken</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Waskommen</t>
+          <t>Douchebak</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Waskommen</t>
+          <t>Douchebakken</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SW23851</t>
+          <t>SW638770</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.maxaro.nl/douches/douchebakken/douchebak-80x80cm-kwartrond-acryl-hoogglans-wit-13049/</t>
+          <t>https://www.maxaro.nl/wastafels/waskommen/waskom-mintra-solid-surface-mat-wit-55x325cm-ovaal-7206/</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>199</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>4 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Douches</t>
+          <t>Wastafels</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Douchebakken</t>
+          <t>Alle wastafels</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Waskommen</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Douchebak</t>
+          <t>Alle wastafels</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4020,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1995</v>
+        <v>2095</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4065,17 +4029,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>16-09-2021</t>
+          <t>26-01-2022</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>14 weeks delivery</t>
+          <t>24 hours delivery</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
